--- a/Price Predicting/PredictionAccuracy.xlsx
+++ b/Price Predicting/PredictionAccuracy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Isaac\Documents\NeuralNet\Learning\NeuralNetLearning\Price Predicting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8F6062E-4B63-4FE9-BAA4-9592A5AAB94E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FAFE6E-5187-4FC2-84CB-60B68309F65D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="15870" windowWidth="29040" windowHeight="15840" xr2:uid="{CDC61E76-0ADD-455D-9BAF-833BB8CCA2CD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="19">
   <si>
     <t>ETH</t>
   </si>
@@ -443,23 +443,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{927A3922-D23A-46E8-969C-5BCD2E81F28E}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" s="1">
         <v>44326</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" s="1">
+        <v>44327</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -469,8 +473,14 @@
       <c r="C2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -480,8 +490,14 @@
       <c r="C3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -491,8 +507,14 @@
       <c r="C4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -502,8 +524,14 @@
       <c r="C5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -513,8 +541,14 @@
       <c r="C6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -524,8 +558,14 @@
       <c r="C7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -535,8 +575,14 @@
       <c r="C8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -546,8 +592,14 @@
       <c r="C9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -557,8 +609,14 @@
       <c r="C10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -568,8 +626,14 @@
       <c r="C11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -579,8 +643,14 @@
       <c r="C12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -590,8 +660,14 @@
       <c r="C13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -601,8 +677,14 @@
       <c r="C14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -612,8 +694,14 @@
       <c r="C15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -622,6 +710,12 @@
       </c>
       <c r="C16" t="s">
         <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Price Predicting/PredictionAccuracy.xlsx
+++ b/Price Predicting/PredictionAccuracy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Isaac\Documents\NeuralNet\Learning\NeuralNetLearning\Price Predicting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FAFE6E-5187-4FC2-84CB-60B68309F65D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204EB5F0-FEB3-4281-8C32-E2565495B736}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="15870" windowWidth="29040" windowHeight="15840" xr2:uid="{CDC61E76-0ADD-455D-9BAF-833BB8CCA2CD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="19">
   <si>
     <t>ETH</t>
   </si>
@@ -443,27 +443,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{927A3922-D23A-46E8-969C-5BCD2E81F28E}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B1" s="1">
         <v>44326</v>
       </c>
       <c r="D1" s="1">
         <v>44327</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" s="1">
+        <v>44328</v>
+      </c>
+      <c r="H1" s="1">
+        <v>44329</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -479,8 +487,20 @@
       <c r="E2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -488,7 +508,7 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -496,8 +516,17 @@
       <c r="E3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -513,8 +542,17 @@
       <c r="E4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -522,7 +560,7 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -530,8 +568,17 @@
       <c r="E5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -539,7 +586,7 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -547,8 +594,17 @@
       <c r="E6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -564,8 +620,17 @@
       <c r="E7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -573,7 +638,7 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
@@ -581,8 +646,17 @@
       <c r="E8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -590,7 +664,7 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
@@ -598,8 +672,17 @@
       <c r="E9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -615,8 +698,17 @@
       <c r="E10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -630,10 +722,19 @@
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -649,8 +750,17 @@
       <c r="E12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -658,7 +768,7 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -666,8 +776,17 @@
       <c r="E13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -681,10 +800,19 @@
         <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -692,7 +820,7 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -700,8 +828,17 @@
       <c r="E15" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -709,13 +846,22 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
         <v>18</v>
       </c>
       <c r="E16" t="s">
         <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
